--- a/chats/ventas.xlsx
+++ b/chats/ventas.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25726"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23FD2EF0-9EED-4FD5-93A3-DCA884D42038}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13140"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet sheetId="1" name="Chats" state="visible" r:id="rId4"/>
+    <sheet name="Chats" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="87">
   <si>
     <t>Fecha</t>
   </si>
@@ -28,156 +29,266 @@
     <t>Medio de pago</t>
   </si>
   <si>
-    <t>05-07-23 08:10</t>
-  </si>
-  <si>
-    <t>bombón</t>
-  </si>
-  <si>
-    <t xml:space="preserve">daviplata
-caramelo </t>
-  </si>
-  <si>
-    <t>05-07-23 08:11</t>
-  </si>
-  <si>
-    <t>caramelo</t>
+    <t>08-07-23 10:38</t>
+  </si>
+  <si>
+    <t>Sobre</t>
+  </si>
+  <si>
+    <t>efectivo</t>
+  </si>
+  <si>
+    <t>08-07-23 08:09</t>
+  </si>
+  <si>
+    <t>Peluche vaca</t>
+  </si>
+  <si>
+    <t>Bolsa seda</t>
+  </si>
+  <si>
+    <t>Burbuja jet</t>
+  </si>
+  <si>
+    <t>08-07-23 08:10</t>
+  </si>
+  <si>
+    <t>Cinta pequeña</t>
+  </si>
+  <si>
+    <t>Kuromi</t>
+  </si>
+  <si>
+    <t>Ancheta</t>
+  </si>
+  <si>
+    <t>Rosa</t>
+  </si>
+  <si>
+    <t>Pocillo</t>
+  </si>
+  <si>
+    <t>Empaque</t>
+  </si>
+  <si>
+    <t>Reloj</t>
+  </si>
+  <si>
+    <t>Pin</t>
+  </si>
+  <si>
+    <t>08-07-23 08:11</t>
+  </si>
+  <si>
+    <t>Pikachu</t>
+  </si>
+  <si>
+    <t>Tarjeta</t>
+  </si>
+  <si>
+    <t>Caja</t>
   </si>
   <si>
     <t>nequi</t>
   </si>
   <si>
-    <t>luigi</t>
-  </si>
-  <si>
-    <t>efectivo</t>
-  </si>
-  <si>
-    <t>bolsa de seda</t>
-  </si>
-  <si>
-    <t>cinta</t>
-  </si>
-  <si>
-    <t>05-07-23 08:12</t>
-  </si>
-  <si>
-    <t>05-07-23 09:57</t>
-  </si>
-  <si>
-    <t>dulces</t>
-  </si>
-  <si>
-    <t>05-07-23 11:15</t>
-  </si>
-  <si>
-    <t>azúcar</t>
-  </si>
-  <si>
-    <t>05-07-23 11:16</t>
-  </si>
-  <si>
-    <t>quien</t>
-  </si>
-  <si>
-    <t>de azúcar</t>
-  </si>
-  <si>
-    <t>quiero</t>
-  </si>
-  <si>
-    <t>06-07-23 10:13</t>
-  </si>
-  <si>
-    <t>06-07-23 10:16</t>
-  </si>
-  <si>
-    <t>06-07-23 10:17</t>
-  </si>
-  <si>
-    <t>06-07-23 10:24</t>
-  </si>
-  <si>
-    <t>06-07-23 11:18</t>
-  </si>
-  <si>
-    <t>dulce</t>
-  </si>
-  <si>
-    <t>06-07-23 11:33</t>
-  </si>
-  <si>
-    <t>colbon</t>
-  </si>
-  <si>
-    <t>06-07-23 11:48</t>
-  </si>
-  <si>
-    <t>peluche</t>
-  </si>
-  <si>
-    <t>ancheta</t>
-  </si>
-  <si>
-    <t>06-07-23 11:49</t>
-  </si>
-  <si>
-    <t>cuaderno</t>
+    <t>08-07-23 08:12</t>
+  </si>
+  <si>
+    <t>Burbujas</t>
+  </si>
+  <si>
+    <t>Chocolatinas jet</t>
+  </si>
+  <si>
+    <t>Gol</t>
+  </si>
+  <si>
+    <t>Choco Break</t>
+  </si>
+  <si>
+    <t>Globo helio marcado</t>
+  </si>
+  <si>
+    <t>09-07-23 11:06</t>
+  </si>
+  <si>
+    <t>Impresión</t>
+  </si>
+  <si>
+    <t>Almendras pequeñas</t>
+  </si>
+  <si>
+    <t>09-07-23 11:26</t>
+  </si>
+  <si>
+    <t>Cariñosito</t>
+  </si>
+  <si>
+    <t>09-07-23 12:27</t>
+  </si>
+  <si>
+    <t>Adhesivo Tarjeta</t>
+  </si>
+  <si>
+    <t>09-07-23 01:00</t>
+  </si>
+  <si>
+    <t>Globo helio grande</t>
+  </si>
+  <si>
+    <t>Globo helio pequeño</t>
+  </si>
+  <si>
+    <t>Palo Globo</t>
+  </si>
+  <si>
+    <t>09-07-23 01:01</t>
+  </si>
+  <si>
+    <t>Pocillo ancheta</t>
+  </si>
+  <si>
+    <t>09-07-23 01:11</t>
+  </si>
+  <si>
+    <t>09-07-23 01:12</t>
+  </si>
+  <si>
+    <t>Bolsa de regalo</t>
+  </si>
+  <si>
+    <t>Trululu chocolores</t>
+  </si>
+  <si>
+    <t>09-07-23 02:17</t>
+  </si>
+  <si>
+    <t>Mantel fiesta</t>
+  </si>
+  <si>
+    <t>Vela volcán</t>
+  </si>
+  <si>
+    <t>Vela whiskey</t>
+  </si>
+  <si>
+    <t>Papel brillante</t>
+  </si>
+  <si>
+    <t>09-07-23 03:36</t>
+  </si>
+  <si>
+    <t>Bolsa regalo</t>
+  </si>
+  <si>
+    <t>09-07-23 03:37</t>
+  </si>
+  <si>
+    <t>Globo mediano</t>
+  </si>
+  <si>
+    <t>09-07-23 04:20</t>
+  </si>
+  <si>
+    <t>Vaso cervecero</t>
+  </si>
+  <si>
+    <t>09-07-23 04:46</t>
+  </si>
+  <si>
+    <t>09-07-23 05:02</t>
+  </si>
+  <si>
+    <t>Hello Kitty</t>
+  </si>
+  <si>
+    <t>09-07-23 05:03</t>
+  </si>
+  <si>
+    <t>Burbujas jet</t>
+  </si>
+  <si>
+    <t>Quipitos</t>
+  </si>
+  <si>
+    <t>09-07-23 05:04</t>
+  </si>
+  <si>
+    <t>09-07-23 07:32</t>
+  </si>
+  <si>
+    <t>09-07-23 07:59</t>
+  </si>
+  <si>
+    <t>Pepa Pig</t>
+  </si>
+  <si>
+    <t>09-07-23 08:00</t>
+  </si>
+  <si>
+    <t>09-07-23 08:28</t>
+  </si>
+  <si>
+    <t>Copias</t>
+  </si>
+  <si>
+    <t>Arreglo de flores</t>
+  </si>
+  <si>
+    <t>10-07-23 12:49</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Oso eco</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bolsas regalo</t>
+  </si>
+  <si>
+    <t>10-07-23 03:40</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ancheta</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> collar</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bolsa regalo</t>
   </si>
   <si>
     <t>daviplata</t>
   </si>
   <si>
-    <t>06-07-23 07:22</t>
-  </si>
-  <si>
-    <t>perrito</t>
-  </si>
-  <si>
-    <t>06-07-23 07:23</t>
-  </si>
-  <si>
-    <t>carro</t>
-  </si>
-  <si>
-    <t>06-07-23 09:58</t>
-  </si>
-  <si>
-    <t>jet jumbo</t>
-  </si>
-  <si>
-    <t>06-07-23 10:03</t>
-  </si>
-  <si>
-    <t>06-07-23 10:48</t>
-  </si>
-  <si>
-    <t>burbuja</t>
-  </si>
-  <si>
-    <t>06-07-23 10:55</t>
-  </si>
-  <si>
-    <t>07-07-23 12:00</t>
-  </si>
-  <si>
-    <t>07-07-23 12:03</t>
-  </si>
-  <si>
-    <t>07-07-23 12:05</t>
+    <t>10-07-23 04:10</t>
+  </si>
+  <si>
+    <t>10-07-23 04:48</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bombas helio</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> velas palitos</t>
+  </si>
+  <si>
+    <t>10-07-23 04:55</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> luigi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -540,17 +651,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D72"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F69" sqref="F69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" defaultColWidth="9.140625"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.5703125" customWidth="1"/>
     <col min="4" max="4" width="14.140625" customWidth="1"/>
   </cols>
@@ -577,7 +688,7 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>5000</v>
+        <v>1500</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -588,13 +699,13 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C3">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -602,13 +713,13 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C4">
-        <v>70000</v>
+        <v>1500</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -616,13 +727,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C5">
-        <v>1500000</v>
+        <v>56000</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -630,353 +741,941 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C6">
-        <v>200000</v>
+        <v>2500</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C7">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C8">
-        <v>52000</v>
+        <v>800</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C9">
-        <v>5000</v>
+        <v>38000</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C10">
-        <v>5000</v>
+        <v>20200</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C11">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>16</v>
       </c>
       <c r="C12">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C13">
-        <v>5000</v>
+        <v>3800</v>
       </c>
       <c r="D13" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C14">
-        <v>5000</v>
+        <v>25000</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C15">
-        <v>5000</v>
+        <v>1500</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C16">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C17">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="D17" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="C18">
-        <v>70000</v>
+        <v>1500</v>
       </c>
       <c r="D18" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="C19">
-        <v>40000</v>
+        <v>1500</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="C20">
-        <v>15000</v>
+        <v>300</v>
       </c>
       <c r="D20" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="C21">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="D21" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="C22">
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="C23">
-        <v>3500</v>
+        <v>1500</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="C24">
-        <v>3500</v>
+        <v>1800</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="C25">
-        <v>3500</v>
+        <v>1600</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="C26">
-        <v>34000</v>
+        <v>1600</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C27">
-        <v>50000</v>
+        <v>600</v>
       </c>
       <c r="D27" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C28">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="B29" t="s">
         <v>32</v>
       </c>
       <c r="C29">
-        <v>50000</v>
+        <v>2300</v>
       </c>
       <c r="D29" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="B30" t="s">
         <v>33</v>
       </c>
       <c r="C30">
-        <v>40000</v>
+        <v>3300</v>
       </c>
       <c r="D30" t="s">
-        <v>11</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31">
+        <v>87000</v>
+      </c>
+      <c r="D31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32">
+        <v>2500</v>
+      </c>
+      <c r="D32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33">
+        <v>300</v>
+      </c>
+      <c r="D33" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34">
+        <v>7000</v>
+      </c>
+      <c r="D34" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35">
+        <v>3000</v>
+      </c>
+      <c r="D35" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" t="s">
+        <v>41</v>
+      </c>
+      <c r="C36">
+        <v>400</v>
+      </c>
+      <c r="D36" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37" t="s">
+        <v>17</v>
+      </c>
+      <c r="C37">
+        <v>2500</v>
+      </c>
+      <c r="D37" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>42</v>
+      </c>
+      <c r="B38" t="s">
+        <v>43</v>
+      </c>
+      <c r="C38">
+        <v>15500</v>
+      </c>
+      <c r="D38" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39">
+        <v>1500</v>
+      </c>
+      <c r="D39" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>45</v>
+      </c>
+      <c r="B40" t="s">
+        <v>46</v>
+      </c>
+      <c r="C40">
+        <v>1800</v>
+      </c>
+      <c r="D40" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>45</v>
+      </c>
+      <c r="B41" t="s">
+        <v>47</v>
+      </c>
+      <c r="C41">
+        <v>1400</v>
+      </c>
+      <c r="D41" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>48</v>
+      </c>
+      <c r="B42" t="s">
+        <v>49</v>
+      </c>
+      <c r="C42">
+        <v>8000</v>
+      </c>
+      <c r="D42" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43" t="s">
+        <v>50</v>
+      </c>
+      <c r="C43">
+        <v>2000</v>
+      </c>
+      <c r="D43" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>48</v>
+      </c>
+      <c r="B44" t="s">
+        <v>51</v>
+      </c>
+      <c r="C44">
+        <v>3000</v>
+      </c>
+      <c r="D44" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>48</v>
+      </c>
+      <c r="B45" t="s">
+        <v>52</v>
+      </c>
+      <c r="C45">
+        <v>4800</v>
+      </c>
+      <c r="D45" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>53</v>
+      </c>
+      <c r="B46" t="s">
+        <v>54</v>
+      </c>
+      <c r="C46">
+        <v>4600</v>
+      </c>
+      <c r="D46" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>55</v>
+      </c>
+      <c r="B47" t="s">
+        <v>56</v>
+      </c>
+      <c r="C47">
+        <v>5000</v>
+      </c>
+      <c r="D47" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>57</v>
+      </c>
+      <c r="B48" t="s">
+        <v>58</v>
+      </c>
+      <c r="C48">
+        <v>16000</v>
+      </c>
+      <c r="D48" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>59</v>
+      </c>
+      <c r="B49" t="s">
+        <v>14</v>
+      </c>
+      <c r="C49">
+        <v>20400</v>
+      </c>
+      <c r="D49" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>60</v>
+      </c>
+      <c r="B50" t="s">
+        <v>61</v>
+      </c>
+      <c r="C50">
+        <v>23000</v>
+      </c>
+      <c r="D50" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>60</v>
+      </c>
+      <c r="B51" t="s">
+        <v>47</v>
+      </c>
+      <c r="C51">
+        <v>1400</v>
+      </c>
+      <c r="D51" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>62</v>
+      </c>
+      <c r="B52" t="s">
+        <v>63</v>
+      </c>
+      <c r="C52">
+        <v>1800</v>
+      </c>
+      <c r="D52" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>62</v>
+      </c>
+      <c r="B53" t="s">
+        <v>28</v>
+      </c>
+      <c r="C53">
+        <v>800</v>
+      </c>
+      <c r="D53" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>62</v>
+      </c>
+      <c r="B54" t="s">
+        <v>64</v>
+      </c>
+      <c r="C54">
+        <v>700</v>
+      </c>
+      <c r="D54" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>65</v>
+      </c>
+      <c r="B55" t="s">
+        <v>17</v>
+      </c>
+      <c r="C55">
+        <v>1500</v>
+      </c>
+      <c r="D55" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>66</v>
+      </c>
+      <c r="B56" t="s">
+        <v>5</v>
+      </c>
+      <c r="C56">
+        <v>1500</v>
+      </c>
+      <c r="D56" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>66</v>
+      </c>
+      <c r="B57" t="s">
+        <v>18</v>
+      </c>
+      <c r="C57">
+        <v>21000</v>
+      </c>
+      <c r="D57" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>67</v>
+      </c>
+      <c r="B58" t="s">
+        <v>68</v>
+      </c>
+      <c r="C58">
+        <v>12000</v>
+      </c>
+      <c r="D58" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>67</v>
+      </c>
+      <c r="B59" t="s">
+        <v>68</v>
+      </c>
+      <c r="C59">
+        <v>12000</v>
+      </c>
+      <c r="D59" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>69</v>
+      </c>
+      <c r="B60" t="s">
+        <v>17</v>
+      </c>
+      <c r="C60">
+        <v>2500</v>
+      </c>
+      <c r="D60" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>69</v>
+      </c>
+      <c r="B61" t="s">
+        <v>64</v>
+      </c>
+      <c r="C61">
+        <v>700</v>
+      </c>
+      <c r="D61" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>70</v>
+      </c>
+      <c r="B62" t="s">
+        <v>71</v>
+      </c>
+      <c r="C62">
+        <v>1200</v>
+      </c>
+      <c r="D62" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>70</v>
+      </c>
+      <c r="B63" t="s">
+        <v>72</v>
+      </c>
+      <c r="C63">
+        <v>4400</v>
+      </c>
+      <c r="D63" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>73</v>
+      </c>
+      <c r="B64" t="s">
+        <v>74</v>
+      </c>
+      <c r="C64">
+        <v>14000</v>
+      </c>
+      <c r="D64" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>73</v>
+      </c>
+      <c r="B65" t="s">
+        <v>75</v>
+      </c>
+      <c r="C65">
+        <v>2500</v>
+      </c>
+      <c r="D65" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>76</v>
+      </c>
+      <c r="B66" t="s">
+        <v>77</v>
+      </c>
+      <c r="C66">
+        <v>55000</v>
+      </c>
+      <c r="D66" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>76</v>
+      </c>
+      <c r="B67" t="s">
+        <v>78</v>
+      </c>
+      <c r="C67">
+        <v>15000</v>
+      </c>
+      <c r="D67" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>76</v>
+      </c>
+      <c r="B68" t="s">
+        <v>79</v>
+      </c>
+      <c r="C68">
+        <v>1800</v>
+      </c>
+      <c r="D68" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>81</v>
+      </c>
+      <c r="B69" t="s">
+        <v>77</v>
+      </c>
+      <c r="C69">
+        <v>23000</v>
+      </c>
+      <c r="D69" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>82</v>
+      </c>
+      <c r="B70" t="s">
+        <v>83</v>
+      </c>
+      <c r="C70">
+        <v>7500</v>
+      </c>
+      <c r="D70" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>82</v>
+      </c>
+      <c r="B71" t="s">
+        <v>84</v>
+      </c>
+      <c r="C71">
+        <v>4000</v>
+      </c>
+      <c r="D71" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>85</v>
+      </c>
+      <c r="B72" t="s">
+        <v>86</v>
+      </c>
+      <c r="C72">
+        <v>30000</v>
+      </c>
+      <c r="D72" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>
--- a/chats/ventas.xlsx
+++ b/chats/ventas.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25726"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23FD2EF0-9EED-4FD5-93A3-DCA884D42038}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
-    <sheet name="Chats" sheetId="1" r:id="rId1"/>
+    <sheet sheetId="1" name="Chats" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="266">
   <si>
     <t>Fecha</t>
   </si>
@@ -276,19 +275,556 @@
   </si>
   <si>
     <t xml:space="preserve"> luigi</t>
+  </si>
+  <si>
+    <t>10-07-23 07:12</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> sobres</t>
+  </si>
+  <si>
+    <t>10-07-23 07:13</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> impresiones</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> copias ampliada</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> carpeta blanca</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> copia</t>
+  </si>
+  <si>
+    <t>10-07-23 07:49</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> caja ancheta</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pokemon</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> seda</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pin</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> afiche</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> moño y bolsa</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> copias</t>
+  </si>
+  <si>
+    <t>Copia</t>
+  </si>
+  <si>
+    <t>10-07-23 08:46</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> empaque</t>
+  </si>
+  <si>
+    <t>10-07-23 08:47</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Masmelos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> chocobreak</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bolsa regalo marcada</t>
+  </si>
+  <si>
+    <t>11-07-23 06:35</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ancheta acetato</t>
+  </si>
+  <si>
+    <t>11-07-23 06:36</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> jorge curioso</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> koala</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> empaques</t>
+  </si>
+  <si>
+    <t>11-07-23 06:37</t>
+  </si>
+  <si>
+    <t>11-07-23 06:38</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> vela vaca</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> jumbo Flow</t>
+  </si>
+  <si>
+    <t>11-07-23 06:39</t>
+  </si>
+  <si>
+    <t>Par aretes</t>
+  </si>
+  <si>
+    <t>12-07-23 02:10</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> serpentinas</t>
+  </si>
+  <si>
+    <t>12-07-23 07:01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> caja chocolates</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> globo metalizado</t>
+  </si>
+  <si>
+    <t>12-07-23 07:02</t>
+  </si>
+  <si>
+    <t>13-07-23 04:42</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> soliban bebé</t>
+  </si>
+  <si>
+    <t>13-07-23 04:43</t>
+  </si>
+  <si>
+    <t>cojín rodillo</t>
+  </si>
+  <si>
+    <t>Y jumbo maní grande</t>
+  </si>
+  <si>
+    <t>13-07-23 07:15</t>
+  </si>
+  <si>
+    <t>afiche pequeño</t>
+  </si>
+  <si>
+    <t>13-07-23 07:18</t>
+  </si>
+  <si>
+    <t>Bombas satinadas</t>
+  </si>
+  <si>
+    <t>Cartelera personalizada</t>
+  </si>
+  <si>
+    <t>Caja pequeña</t>
+  </si>
+  <si>
+    <t>Chocobreaks</t>
+  </si>
+  <si>
+    <t>13-07-23 07:23</t>
+  </si>
+  <si>
+    <t>Jumbo maní pequeña</t>
+  </si>
+  <si>
+    <t>13-07-23 07:24</t>
+  </si>
+  <si>
+    <t>Ancheta peluche llavero</t>
+  </si>
+  <si>
+    <t>13-07-23 07:41</t>
+  </si>
+  <si>
+    <t>Festón cumpleaños</t>
+  </si>
+  <si>
+    <t>13-07-23 07:43</t>
+  </si>
+  <si>
+    <t>13-07-23 07:44</t>
+  </si>
+  <si>
+    <t>Ancheta con marcha y oso</t>
+  </si>
+  <si>
+    <t>Empaque con moño</t>
+  </si>
+  <si>
+    <t>Número metalizado</t>
+  </si>
+  <si>
+    <t>13-07-23 07:45</t>
+  </si>
+  <si>
+    <t>Copia bn</t>
+  </si>
+  <si>
+    <t>13-07-23 07:48</t>
+  </si>
+  <si>
+    <t>Jet pequeña</t>
+  </si>
+  <si>
+    <t>Mini gol</t>
+  </si>
+  <si>
+    <t>14-07-23 08:29</t>
+  </si>
+  <si>
+    <t>Elefante pq</t>
+  </si>
+  <si>
+    <t>Pin grande</t>
+  </si>
+  <si>
+    <t>Ancheta cojín</t>
+  </si>
+  <si>
+    <t>Bolsas regalo</t>
+  </si>
+  <si>
+    <t>14-07-23 08:30</t>
+  </si>
+  <si>
+    <t>14-07-23 08:32</t>
+  </si>
+  <si>
+    <t>Arreglo globos</t>
+  </si>
+  <si>
+    <t>15-07-23 10:20</t>
+  </si>
+  <si>
+    <t>15-07-23 10:21</t>
+  </si>
+  <si>
+    <t>15-07-23 01:59</t>
+  </si>
+  <si>
+    <t>15-07-23 03:24</t>
+  </si>
+  <si>
+    <t>Sobre con Tarjerta</t>
+  </si>
+  <si>
+    <t>15-07-23 04:23</t>
+  </si>
+  <si>
+    <t>15-07-23 05:10</t>
+  </si>
+  <si>
+    <t>15-07-23 06:07</t>
+  </si>
+  <si>
+    <t>Moño</t>
+  </si>
+  <si>
+    <t>15-07-23 06:30</t>
+  </si>
+  <si>
+    <t>Mantel</t>
+  </si>
+  <si>
+    <t>15-07-23 07:52</t>
+  </si>
+  <si>
+    <t>15-07-23 07:53</t>
+  </si>
+  <si>
+    <t>15-07-23 07:54</t>
+  </si>
+  <si>
+    <t>15-07-23 07:55</t>
+  </si>
+  <si>
+    <t>16-07-23 12:31</t>
+  </si>
+  <si>
+    <t>Cervecero grande</t>
+  </si>
+  <si>
+    <t>Bolsa brillante</t>
+  </si>
+  <si>
+    <t>16-07-23 12:32</t>
+  </si>
+  <si>
+    <t>Cruji jet blanca</t>
+  </si>
+  <si>
+    <t>16-07-23 12:33</t>
+  </si>
+  <si>
+    <t>Choco break</t>
+  </si>
+  <si>
+    <t>Masmelo</t>
+  </si>
+  <si>
+    <t>Globo pequeño</t>
+  </si>
+  <si>
+    <t>16-07-23 12:54</t>
+  </si>
+  <si>
+    <t>Jet cookies and cream</t>
+  </si>
+  <si>
+    <t>16-07-23 12:58</t>
+  </si>
+  <si>
+    <t>16-07-23 02:49</t>
+  </si>
+  <si>
+    <t>16-07-23 03:10</t>
+  </si>
+  <si>
+    <t>Lapicero</t>
+  </si>
+  <si>
+    <t>16-07-23 03:57</t>
+  </si>
+  <si>
+    <t>16-07-23 04:24</t>
+  </si>
+  <si>
+    <t>16-07-23 05:07</t>
+  </si>
+  <si>
+    <t>Cartulina</t>
+  </si>
+  <si>
+    <t>Globos pastel</t>
+  </si>
+  <si>
+    <t>Banner</t>
+  </si>
+  <si>
+    <t>16-07-23 05:08</t>
+  </si>
+  <si>
+    <t>Globos feliz cumpleaños</t>
+  </si>
+  <si>
+    <t>Vela</t>
+  </si>
+  <si>
+    <t>16-07-23 05:09</t>
+  </si>
+  <si>
+    <t>Peluche oso pequeño</t>
+  </si>
+  <si>
+    <t>16-07-23 05:16</t>
+  </si>
+  <si>
+    <t>Impresiones</t>
+  </si>
+  <si>
+    <t>16-07-23 05:39</t>
+  </si>
+  <si>
+    <t>Letrero feliz cumpleaños</t>
+  </si>
+  <si>
+    <t>Globo número uno</t>
+  </si>
+  <si>
+    <t>Globo número nueve</t>
+  </si>
+  <si>
+    <t>16-07-23 05:40</t>
+  </si>
+  <si>
+    <t>Tarjeta feliz cumpleaños</t>
+  </si>
+  <si>
+    <t>17-07-23 05:05</t>
+  </si>
+  <si>
+    <t>Soliban bebé</t>
+  </si>
+  <si>
+    <t>Caja collar</t>
+  </si>
+  <si>
+    <t>Festón</t>
+  </si>
+  <si>
+    <t>Caja más peluche</t>
+  </si>
+  <si>
+    <t>17-07-23 07:44</t>
+  </si>
+  <si>
+    <t>Cerveza llavero</t>
+  </si>
+  <si>
+    <t>Jumbo maní</t>
+  </si>
+  <si>
+    <t>Empaques</t>
+  </si>
+  <si>
+    <t>18-07-23 07:00</t>
+  </si>
+  <si>
+    <t>Sullivan bb</t>
+  </si>
+  <si>
+    <t>Empaque seda</t>
+  </si>
+  <si>
+    <t>Bolsa kraft</t>
+  </si>
+  <si>
+    <t>Caja más papel</t>
+  </si>
+  <si>
+    <t>18-07-23 07:01</t>
+  </si>
+  <si>
+    <t>Pocillo térmico</t>
+  </si>
+  <si>
+    <t>Ferrero</t>
+  </si>
+  <si>
+    <t>19-07-23 05:46</t>
+  </si>
+  <si>
+    <t>Yoshi mario</t>
+  </si>
+  <si>
+    <t>Afiche</t>
+  </si>
+  <si>
+    <t>19-07-23 05:47</t>
+  </si>
+  <si>
+    <t>Copa más dulces</t>
+  </si>
+  <si>
+    <t>Burbuja</t>
+  </si>
+  <si>
+    <t>Jumbo</t>
+  </si>
+  <si>
+    <t>Pocillo Choco</t>
+  </si>
+  <si>
+    <t>19-07-23 05:48</t>
+  </si>
+  <si>
+    <t>Caja más dulces</t>
+  </si>
+  <si>
+    <t>Crujijet</t>
+  </si>
+  <si>
+    <t>Chocobreak</t>
+  </si>
+  <si>
+    <t>19-07-23 06:42</t>
+  </si>
+  <si>
+    <t>Almendras</t>
+  </si>
+  <si>
+    <t>Bolsa regalo p</t>
+  </si>
+  <si>
+    <t>Stich</t>
+  </si>
+  <si>
+    <t>19-07-23 07:13</t>
+  </si>
+  <si>
+    <t>Reloj dama</t>
+  </si>
+  <si>
+    <t>19-07-23 07:14</t>
+  </si>
+  <si>
+    <t>Jet wafer</t>
+  </si>
+  <si>
+    <t>20-07-23 02:47</t>
+  </si>
+  <si>
+    <t>Globo helio</t>
+  </si>
+  <si>
+    <t>Impresión color</t>
+  </si>
+  <si>
+    <t>20-07-23 02:48</t>
+  </si>
+  <si>
+    <t>Impresiones y carpetas</t>
+  </si>
+  <si>
+    <t>20-07-23 06:26</t>
+  </si>
+  <si>
+    <t>Reloj niña</t>
+  </si>
+  <si>
+    <t>Sobre blanco</t>
+  </si>
+  <si>
+    <t>20-07-23 06:27</t>
+  </si>
+  <si>
+    <t>Jet</t>
+  </si>
+  <si>
+    <t>20-07-23 06:28</t>
+  </si>
+  <si>
+    <t>Tarjeta personalizada</t>
+  </si>
+  <si>
+    <t>Fotos</t>
+  </si>
+  <si>
+    <t>Splash</t>
+  </si>
+  <si>
+    <t>Collar</t>
+  </si>
+  <si>
+    <t>Llavero peluche</t>
+  </si>
+  <si>
+    <t>Alcancía madera</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -651,17 +1187,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D72"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D236"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F69" sqref="F69"/>
+    <sheetView workbookViewId="0" zoomScale="160" zoomScaleNormal="160">
+      <selection activeCell="E109" sqref="E109"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" defaultColWidth="9.140625"/>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" customWidth="1"/>
     <col min="3" max="3" width="6.5703125" customWidth="1"/>
     <col min="4" max="4" width="14.140625" customWidth="1"/>
   </cols>
@@ -1674,8 +2210,2304 @@
         <v>6</v>
       </c>
     </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>87</v>
+      </c>
+      <c r="B73" t="s">
+        <v>88</v>
+      </c>
+      <c r="C73">
+        <v>3000</v>
+      </c>
+      <c r="D73" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>89</v>
+      </c>
+      <c r="B74" t="s">
+        <v>90</v>
+      </c>
+      <c r="C74">
+        <v>1600</v>
+      </c>
+      <c r="D74" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>89</v>
+      </c>
+      <c r="B75" t="s">
+        <v>91</v>
+      </c>
+      <c r="C75">
+        <v>1000</v>
+      </c>
+      <c r="D75" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>89</v>
+      </c>
+      <c r="B76" t="s">
+        <v>92</v>
+      </c>
+      <c r="C76">
+        <v>350</v>
+      </c>
+      <c r="D76" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>89</v>
+      </c>
+      <c r="B77" t="s">
+        <v>93</v>
+      </c>
+      <c r="C77">
+        <v>200</v>
+      </c>
+      <c r="D77" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>94</v>
+      </c>
+      <c r="B78" t="s">
+        <v>95</v>
+      </c>
+      <c r="C78">
+        <v>6000</v>
+      </c>
+      <c r="D78" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>94</v>
+      </c>
+      <c r="B79" t="s">
+        <v>96</v>
+      </c>
+      <c r="C79">
+        <v>30000</v>
+      </c>
+      <c r="D79" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>94</v>
+      </c>
+      <c r="B80" t="s">
+        <v>97</v>
+      </c>
+      <c r="C80">
+        <v>600</v>
+      </c>
+      <c r="D80" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>94</v>
+      </c>
+      <c r="B81" t="s">
+        <v>98</v>
+      </c>
+      <c r="C81">
+        <v>2000</v>
+      </c>
+      <c r="D81" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>94</v>
+      </c>
+      <c r="B82" t="s">
+        <v>99</v>
+      </c>
+      <c r="C82">
+        <v>6000</v>
+      </c>
+      <c r="D82" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>94</v>
+      </c>
+      <c r="B83" t="s">
+        <v>100</v>
+      </c>
+      <c r="C83">
+        <v>4000</v>
+      </c>
+      <c r="D83" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>94</v>
+      </c>
+      <c r="B84" t="s">
+        <v>101</v>
+      </c>
+      <c r="C84">
+        <v>200</v>
+      </c>
+      <c r="D84" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>94</v>
+      </c>
+      <c r="B85" t="s">
+        <v>102</v>
+      </c>
+      <c r="C85">
+        <v>200</v>
+      </c>
+      <c r="D85" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>103</v>
+      </c>
+      <c r="B86" t="s">
+        <v>104</v>
+      </c>
+      <c r="C86">
+        <v>1500</v>
+      </c>
+      <c r="D86" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>105</v>
+      </c>
+      <c r="B87" t="s">
+        <v>98</v>
+      </c>
+      <c r="C87">
+        <v>1500</v>
+      </c>
+      <c r="D87" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>105</v>
+      </c>
+      <c r="B88" t="s">
+        <v>106</v>
+      </c>
+      <c r="C88">
+        <v>600</v>
+      </c>
+      <c r="D88" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>105</v>
+      </c>
+      <c r="B89" t="s">
+        <v>107</v>
+      </c>
+      <c r="C89">
+        <v>800</v>
+      </c>
+      <c r="D89" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>105</v>
+      </c>
+      <c r="B90" t="s">
+        <v>108</v>
+      </c>
+      <c r="C90">
+        <v>4800</v>
+      </c>
+      <c r="D90" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>109</v>
+      </c>
+      <c r="B91" t="s">
+        <v>110</v>
+      </c>
+      <c r="C91">
+        <v>32700.000000000004</v>
+      </c>
+      <c r="D91" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>111</v>
+      </c>
+      <c r="B92" t="s">
+        <v>112</v>
+      </c>
+      <c r="C92">
+        <v>38000</v>
+      </c>
+      <c r="D92" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>111</v>
+      </c>
+      <c r="B93" t="s">
+        <v>113</v>
+      </c>
+      <c r="C93">
+        <v>30000</v>
+      </c>
+      <c r="D93" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>111</v>
+      </c>
+      <c r="B94" t="s">
+        <v>114</v>
+      </c>
+      <c r="C94">
+        <v>4000</v>
+      </c>
+      <c r="D94" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>111</v>
+      </c>
+      <c r="B95" t="s">
+        <v>90</v>
+      </c>
+      <c r="C95">
+        <v>600</v>
+      </c>
+      <c r="D95" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>115</v>
+      </c>
+      <c r="B96" t="s">
+        <v>92</v>
+      </c>
+      <c r="C96">
+        <v>200</v>
+      </c>
+      <c r="D96" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>116</v>
+      </c>
+      <c r="B97" t="s">
+        <v>117</v>
+      </c>
+      <c r="C97">
+        <v>2000</v>
+      </c>
+      <c r="D97" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>116</v>
+      </c>
+      <c r="B98" t="s">
+        <v>118</v>
+      </c>
+      <c r="C98">
+        <v>5200</v>
+      </c>
+      <c r="D98" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>119</v>
+      </c>
+      <c r="B99" t="s">
+        <v>120</v>
+      </c>
+      <c r="C99">
+        <v>7500</v>
+      </c>
+      <c r="D99" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>121</v>
+      </c>
+      <c r="B100" t="s">
+        <v>122</v>
+      </c>
+      <c r="C100">
+        <v>2000</v>
+      </c>
+      <c r="D100" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>121</v>
+      </c>
+      <c r="B101" t="s">
+        <v>104</v>
+      </c>
+      <c r="C101">
+        <v>2500</v>
+      </c>
+      <c r="D101" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>123</v>
+      </c>
+      <c r="B102" t="s">
+        <v>124</v>
+      </c>
+      <c r="C102">
+        <v>4200</v>
+      </c>
+      <c r="D102" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>123</v>
+      </c>
+      <c r="B103" t="s">
+        <v>125</v>
+      </c>
+      <c r="C103">
+        <v>12000</v>
+      </c>
+      <c r="D103" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>126</v>
+      </c>
+      <c r="B104" t="s">
+        <v>90</v>
+      </c>
+      <c r="C104">
+        <v>600</v>
+      </c>
+      <c r="D104" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>127</v>
+      </c>
+      <c r="B105" t="s">
+        <v>128</v>
+      </c>
+      <c r="C105">
+        <v>50000</v>
+      </c>
+      <c r="D105" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>127</v>
+      </c>
+      <c r="B106" t="s">
+        <v>79</v>
+      </c>
+      <c r="C106">
+        <v>4500</v>
+      </c>
+      <c r="D106" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>129</v>
+      </c>
+      <c r="B107" t="s">
+        <v>130</v>
+      </c>
+      <c r="C107">
+        <v>30000</v>
+      </c>
+      <c r="D107" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>129</v>
+      </c>
+      <c r="B108" t="s">
+        <v>104</v>
+      </c>
+      <c r="C108">
+        <v>3500</v>
+      </c>
+      <c r="D108" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>129</v>
+      </c>
+      <c r="B109" t="s">
+        <v>131</v>
+      </c>
+      <c r="C109">
+        <v>6200</v>
+      </c>
+      <c r="D109" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>132</v>
+      </c>
+      <c r="B110" t="s">
+        <v>133</v>
+      </c>
+      <c r="C110">
+        <v>700</v>
+      </c>
+      <c r="D110" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>134</v>
+      </c>
+      <c r="B111" t="s">
+        <v>135</v>
+      </c>
+      <c r="C111">
+        <v>2000</v>
+      </c>
+      <c r="D111" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>134</v>
+      </c>
+      <c r="B112" t="s">
+        <v>136</v>
+      </c>
+      <c r="C112">
+        <v>58000</v>
+      </c>
+      <c r="D112" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>134</v>
+      </c>
+      <c r="B113" t="s">
+        <v>137</v>
+      </c>
+      <c r="C113">
+        <v>6000</v>
+      </c>
+      <c r="D113" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>134</v>
+      </c>
+      <c r="B114" t="s">
+        <v>138</v>
+      </c>
+      <c r="C114">
+        <v>2000</v>
+      </c>
+      <c r="D114" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>139</v>
+      </c>
+      <c r="B115" t="s">
+        <v>140</v>
+      </c>
+      <c r="C115">
+        <v>2000</v>
+      </c>
+      <c r="D115" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>141</v>
+      </c>
+      <c r="B116" t="s">
+        <v>142</v>
+      </c>
+      <c r="C116">
+        <v>42700</v>
+      </c>
+      <c r="D116" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>143</v>
+      </c>
+      <c r="B117" t="s">
+        <v>144</v>
+      </c>
+      <c r="C117">
+        <v>4000</v>
+      </c>
+      <c r="D117" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>145</v>
+      </c>
+      <c r="B118" t="s">
+        <v>21</v>
+      </c>
+      <c r="C118">
+        <v>30000</v>
+      </c>
+      <c r="D118" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>145</v>
+      </c>
+      <c r="B119" t="s">
+        <v>17</v>
+      </c>
+      <c r="C119">
+        <v>1500</v>
+      </c>
+      <c r="D119" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>146</v>
+      </c>
+      <c r="B120" t="s">
+        <v>147</v>
+      </c>
+      <c r="C120">
+        <v>70500</v>
+      </c>
+      <c r="D120" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>146</v>
+      </c>
+      <c r="B121" t="s">
+        <v>148</v>
+      </c>
+      <c r="C121">
+        <v>5500</v>
+      </c>
+      <c r="D121" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>146</v>
+      </c>
+      <c r="B122" t="s">
+        <v>149</v>
+      </c>
+      <c r="C122">
+        <v>7600</v>
+      </c>
+      <c r="D122" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>150</v>
+      </c>
+      <c r="B123" t="s">
+        <v>151</v>
+      </c>
+      <c r="C123">
+        <v>200</v>
+      </c>
+      <c r="D123" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>152</v>
+      </c>
+      <c r="B124" t="s">
+        <v>153</v>
+      </c>
+      <c r="C124">
+        <v>1600</v>
+      </c>
+      <c r="D124" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>152</v>
+      </c>
+      <c r="B125" t="s">
+        <v>154</v>
+      </c>
+      <c r="C125">
+        <v>800</v>
+      </c>
+      <c r="D125" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>155</v>
+      </c>
+      <c r="B126" t="s">
+        <v>156</v>
+      </c>
+      <c r="C126">
+        <v>33000</v>
+      </c>
+      <c r="D126" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>155</v>
+      </c>
+      <c r="B127" t="s">
+        <v>157</v>
+      </c>
+      <c r="C127">
+        <v>2500</v>
+      </c>
+      <c r="D127" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>155</v>
+      </c>
+      <c r="B128" t="s">
+        <v>16</v>
+      </c>
+      <c r="C128">
+        <v>8000</v>
+      </c>
+      <c r="D128" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>155</v>
+      </c>
+      <c r="B129" t="s">
+        <v>158</v>
+      </c>
+      <c r="C129">
+        <v>74300</v>
+      </c>
+      <c r="D129" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>155</v>
+      </c>
+      <c r="B130" t="s">
+        <v>159</v>
+      </c>
+      <c r="C130">
+        <v>11600</v>
+      </c>
+      <c r="D130" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>160</v>
+      </c>
+      <c r="B131" t="s">
+        <v>102</v>
+      </c>
+      <c r="C131">
+        <v>200</v>
+      </c>
+      <c r="D131" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>160</v>
+      </c>
+      <c r="B132" t="s">
+        <v>14</v>
+      </c>
+      <c r="C132">
+        <v>27800</v>
+      </c>
+      <c r="D132" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>161</v>
+      </c>
+      <c r="B133" t="s">
+        <v>162</v>
+      </c>
+      <c r="C133">
+        <v>10000</v>
+      </c>
+      <c r="D133" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>163</v>
+      </c>
+      <c r="B134" t="s">
+        <v>102</v>
+      </c>
+      <c r="C134">
+        <v>500</v>
+      </c>
+      <c r="D134" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>164</v>
+      </c>
+      <c r="B135" t="s">
+        <v>32</v>
+      </c>
+      <c r="C135">
+        <v>400</v>
+      </c>
+      <c r="D135" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>165</v>
+      </c>
+      <c r="B136" t="s">
+        <v>46</v>
+      </c>
+      <c r="C136">
+        <v>4600</v>
+      </c>
+      <c r="D136" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>165</v>
+      </c>
+      <c r="B137" t="s">
+        <v>46</v>
+      </c>
+      <c r="C137">
+        <v>4600</v>
+      </c>
+      <c r="D137" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>165</v>
+      </c>
+      <c r="B138" t="s">
+        <v>22</v>
+      </c>
+      <c r="C138">
+        <v>300</v>
+      </c>
+      <c r="D138" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>165</v>
+      </c>
+      <c r="B139" t="s">
+        <v>22</v>
+      </c>
+      <c r="C139">
+        <v>300</v>
+      </c>
+      <c r="D139" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>166</v>
+      </c>
+      <c r="B140" t="s">
+        <v>167</v>
+      </c>
+      <c r="C140">
+        <v>7000</v>
+      </c>
+      <c r="D140" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>168</v>
+      </c>
+      <c r="B141" t="s">
+        <v>17</v>
+      </c>
+      <c r="C141">
+        <v>3500</v>
+      </c>
+      <c r="D141" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>168</v>
+      </c>
+      <c r="B142" t="s">
+        <v>22</v>
+      </c>
+      <c r="C142">
+        <v>300</v>
+      </c>
+      <c r="D142" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>169</v>
+      </c>
+      <c r="B143" t="s">
+        <v>17</v>
+      </c>
+      <c r="C143">
+        <v>1500</v>
+      </c>
+      <c r="D143" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>169</v>
+      </c>
+      <c r="B144" t="s">
+        <v>22</v>
+      </c>
+      <c r="C144">
+        <v>300</v>
+      </c>
+      <c r="D144" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>170</v>
+      </c>
+      <c r="B145" t="s">
+        <v>171</v>
+      </c>
+      <c r="C145">
+        <v>2000</v>
+      </c>
+      <c r="D145" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>172</v>
+      </c>
+      <c r="B146" t="s">
+        <v>173</v>
+      </c>
+      <c r="C146">
+        <v>5000</v>
+      </c>
+      <c r="D146" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>174</v>
+      </c>
+      <c r="B147" t="s">
+        <v>46</v>
+      </c>
+      <c r="C147">
+        <v>4000</v>
+      </c>
+      <c r="D147" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>175</v>
+      </c>
+      <c r="B148" t="s">
+        <v>46</v>
+      </c>
+      <c r="C148">
+        <v>2500</v>
+      </c>
+      <c r="D148" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>176</v>
+      </c>
+      <c r="B149" t="s">
+        <v>5</v>
+      </c>
+      <c r="C149">
+        <v>1500</v>
+      </c>
+      <c r="D149" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>176</v>
+      </c>
+      <c r="B150" t="s">
+        <v>5</v>
+      </c>
+      <c r="C150">
+        <v>1500</v>
+      </c>
+      <c r="D150" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>177</v>
+      </c>
+      <c r="B151" t="s">
+        <v>102</v>
+      </c>
+      <c r="C151">
+        <v>700</v>
+      </c>
+      <c r="D151" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>178</v>
+      </c>
+      <c r="B152" t="s">
+        <v>179</v>
+      </c>
+      <c r="C152">
+        <v>20000</v>
+      </c>
+      <c r="D152" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>178</v>
+      </c>
+      <c r="B153" t="s">
+        <v>180</v>
+      </c>
+      <c r="C153">
+        <v>4800</v>
+      </c>
+      <c r="D153" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>181</v>
+      </c>
+      <c r="B154" t="s">
+        <v>182</v>
+      </c>
+      <c r="C154">
+        <v>1700</v>
+      </c>
+      <c r="D154" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>181</v>
+      </c>
+      <c r="B155" t="s">
+        <v>47</v>
+      </c>
+      <c r="C155">
+        <v>1400</v>
+      </c>
+      <c r="D155" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>181</v>
+      </c>
+      <c r="B156" t="s">
+        <v>10</v>
+      </c>
+      <c r="C156">
+        <v>900</v>
+      </c>
+      <c r="D156" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>183</v>
+      </c>
+      <c r="B157" t="s">
+        <v>184</v>
+      </c>
+      <c r="C157">
+        <v>500</v>
+      </c>
+      <c r="D157" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>183</v>
+      </c>
+      <c r="B158" t="s">
+        <v>185</v>
+      </c>
+      <c r="C158">
+        <v>700</v>
+      </c>
+      <c r="D158" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>183</v>
+      </c>
+      <c r="B159" t="s">
+        <v>17</v>
+      </c>
+      <c r="C159">
+        <v>1500</v>
+      </c>
+      <c r="D159" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>183</v>
+      </c>
+      <c r="B160" t="s">
+        <v>186</v>
+      </c>
+      <c r="C160">
+        <v>2000</v>
+      </c>
+      <c r="D160" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>187</v>
+      </c>
+      <c r="B161" t="s">
+        <v>17</v>
+      </c>
+      <c r="C161">
+        <v>1500</v>
+      </c>
+      <c r="D161" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>187</v>
+      </c>
+      <c r="B162" t="s">
+        <v>188</v>
+      </c>
+      <c r="C162">
+        <v>3500</v>
+      </c>
+      <c r="D162" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>189</v>
+      </c>
+      <c r="B163" t="s">
+        <v>22</v>
+      </c>
+      <c r="C163">
+        <v>300</v>
+      </c>
+      <c r="D163" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>190</v>
+      </c>
+      <c r="B164" t="s">
+        <v>17</v>
+      </c>
+      <c r="C164">
+        <v>2500</v>
+      </c>
+      <c r="D164" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>191</v>
+      </c>
+      <c r="B165" t="s">
+        <v>192</v>
+      </c>
+      <c r="C165">
+        <v>900</v>
+      </c>
+      <c r="D165" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>191</v>
+      </c>
+      <c r="B166" t="s">
+        <v>192</v>
+      </c>
+      <c r="C166">
+        <v>900</v>
+      </c>
+      <c r="D166" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>191</v>
+      </c>
+      <c r="B167" t="s">
+        <v>10</v>
+      </c>
+      <c r="C167">
+        <v>900</v>
+      </c>
+      <c r="D167" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>193</v>
+      </c>
+      <c r="B168" t="s">
+        <v>180</v>
+      </c>
+      <c r="C168">
+        <v>4800</v>
+      </c>
+      <c r="D168" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>194</v>
+      </c>
+      <c r="B169" t="s">
+        <v>22</v>
+      </c>
+      <c r="C169">
+        <v>300</v>
+      </c>
+      <c r="D169" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>195</v>
+      </c>
+      <c r="B170" t="s">
+        <v>32</v>
+      </c>
+      <c r="C170">
+        <v>300</v>
+      </c>
+      <c r="D170" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>195</v>
+      </c>
+      <c r="B171" t="s">
+        <v>196</v>
+      </c>
+      <c r="C171">
+        <v>300</v>
+      </c>
+      <c r="D171" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>195</v>
+      </c>
+      <c r="B172" t="s">
+        <v>197</v>
+      </c>
+      <c r="C172">
+        <v>900</v>
+      </c>
+      <c r="D172" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>195</v>
+      </c>
+      <c r="B173" t="s">
+        <v>198</v>
+      </c>
+      <c r="C173">
+        <v>4000</v>
+      </c>
+      <c r="D173" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>199</v>
+      </c>
+      <c r="B174" t="s">
+        <v>200</v>
+      </c>
+      <c r="C174">
+        <v>2400</v>
+      </c>
+      <c r="D174" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>199</v>
+      </c>
+      <c r="B175" t="s">
+        <v>201</v>
+      </c>
+      <c r="C175">
+        <v>2000</v>
+      </c>
+      <c r="D175" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>202</v>
+      </c>
+      <c r="B176" t="s">
+        <v>203</v>
+      </c>
+      <c r="C176">
+        <v>14000</v>
+      </c>
+      <c r="D176" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>202</v>
+      </c>
+      <c r="B177" t="s">
+        <v>46</v>
+      </c>
+      <c r="C177">
+        <v>4000</v>
+      </c>
+      <c r="D177" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>204</v>
+      </c>
+      <c r="B178" t="s">
+        <v>205</v>
+      </c>
+      <c r="C178">
+        <v>2100</v>
+      </c>
+      <c r="D178" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>206</v>
+      </c>
+      <c r="B179" t="s">
+        <v>207</v>
+      </c>
+      <c r="C179">
+        <v>5000</v>
+      </c>
+      <c r="D179" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>206</v>
+      </c>
+      <c r="B180" t="s">
+        <v>208</v>
+      </c>
+      <c r="C180">
+        <v>1800</v>
+      </c>
+      <c r="D180" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>206</v>
+      </c>
+      <c r="B181" t="s">
+        <v>209</v>
+      </c>
+      <c r="C181">
+        <v>1800</v>
+      </c>
+      <c r="D181" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>210</v>
+      </c>
+      <c r="B182" t="s">
+        <v>211</v>
+      </c>
+      <c r="C182">
+        <v>4000</v>
+      </c>
+      <c r="D182" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>210</v>
+      </c>
+      <c r="B183" t="s">
+        <v>32</v>
+      </c>
+      <c r="C183">
+        <v>300</v>
+      </c>
+      <c r="D183" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>212</v>
+      </c>
+      <c r="B184" t="s">
+        <v>213</v>
+      </c>
+      <c r="C184">
+        <v>50000</v>
+      </c>
+      <c r="D184" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>212</v>
+      </c>
+      <c r="B185" t="s">
+        <v>214</v>
+      </c>
+      <c r="C185">
+        <v>3000</v>
+      </c>
+      <c r="D185" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>212</v>
+      </c>
+      <c r="B186" t="s">
+        <v>14</v>
+      </c>
+      <c r="C186">
+        <v>35800</v>
+      </c>
+      <c r="D186" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>212</v>
+      </c>
+      <c r="B187" t="s">
+        <v>215</v>
+      </c>
+      <c r="C187">
+        <v>4000</v>
+      </c>
+      <c r="D187" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>212</v>
+      </c>
+      <c r="B188" t="s">
+        <v>214</v>
+      </c>
+      <c r="C188">
+        <v>3000</v>
+      </c>
+      <c r="D188" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>212</v>
+      </c>
+      <c r="B189" t="s">
+        <v>216</v>
+      </c>
+      <c r="C189">
+        <v>47500</v>
+      </c>
+      <c r="D189" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>217</v>
+      </c>
+      <c r="B190" t="s">
+        <v>218</v>
+      </c>
+      <c r="C190">
+        <v>25000</v>
+      </c>
+      <c r="D190" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>217</v>
+      </c>
+      <c r="B191" t="s">
+        <v>219</v>
+      </c>
+      <c r="C191">
+        <v>3300</v>
+      </c>
+      <c r="D191" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>217</v>
+      </c>
+      <c r="B192" t="s">
+        <v>220</v>
+      </c>
+      <c r="C192">
+        <v>4300</v>
+      </c>
+      <c r="D192" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>217</v>
+      </c>
+      <c r="B193" t="s">
+        <v>102</v>
+      </c>
+      <c r="C193">
+        <v>200</v>
+      </c>
+      <c r="D193" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>217</v>
+      </c>
+      <c r="B194" t="s">
+        <v>205</v>
+      </c>
+      <c r="C194">
+        <v>1300</v>
+      </c>
+      <c r="D194" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>221</v>
+      </c>
+      <c r="B195" t="s">
+        <v>222</v>
+      </c>
+      <c r="C195">
+        <v>70000</v>
+      </c>
+      <c r="D195" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>221</v>
+      </c>
+      <c r="B196" t="s">
+        <v>223</v>
+      </c>
+      <c r="C196">
+        <v>3500</v>
+      </c>
+      <c r="D196" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>221</v>
+      </c>
+      <c r="B197" t="s">
+        <v>32</v>
+      </c>
+      <c r="C197">
+        <v>1000</v>
+      </c>
+      <c r="D197" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>221</v>
+      </c>
+      <c r="B198" t="s">
+        <v>224</v>
+      </c>
+      <c r="C198">
+        <v>2400</v>
+      </c>
+      <c r="D198" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>221</v>
+      </c>
+      <c r="B199" t="s">
+        <v>225</v>
+      </c>
+      <c r="C199">
+        <v>10000</v>
+      </c>
+      <c r="D199" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>226</v>
+      </c>
+      <c r="B200" t="s">
+        <v>227</v>
+      </c>
+      <c r="C200">
+        <v>27000</v>
+      </c>
+      <c r="D200" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>226</v>
+      </c>
+      <c r="B201" t="s">
+        <v>228</v>
+      </c>
+      <c r="C201">
+        <v>10500</v>
+      </c>
+      <c r="D201" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>229</v>
+      </c>
+      <c r="B202" t="s">
+        <v>230</v>
+      </c>
+      <c r="C202">
+        <v>52000</v>
+      </c>
+      <c r="D202" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>229</v>
+      </c>
+      <c r="B203" t="s">
+        <v>225</v>
+      </c>
+      <c r="C203">
+        <v>23000</v>
+      </c>
+      <c r="D203" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>229</v>
+      </c>
+      <c r="B204" t="s">
+        <v>231</v>
+      </c>
+      <c r="C204">
+        <v>5500</v>
+      </c>
+      <c r="D204" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>232</v>
+      </c>
+      <c r="B205" t="s">
+        <v>233</v>
+      </c>
+      <c r="C205">
+        <v>25600</v>
+      </c>
+      <c r="D205" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>232</v>
+      </c>
+      <c r="B206" t="s">
+        <v>64</v>
+      </c>
+      <c r="C206">
+        <v>700</v>
+      </c>
+      <c r="D206" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>232</v>
+      </c>
+      <c r="B207" t="s">
+        <v>16</v>
+      </c>
+      <c r="C207">
+        <v>8000</v>
+      </c>
+      <c r="D207" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>232</v>
+      </c>
+      <c r="B208" t="s">
+        <v>234</v>
+      </c>
+      <c r="C208">
+        <v>900</v>
+      </c>
+      <c r="D208" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>232</v>
+      </c>
+      <c r="B209" t="s">
+        <v>235</v>
+      </c>
+      <c r="C209">
+        <v>1000</v>
+      </c>
+      <c r="D209" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>232</v>
+      </c>
+      <c r="B210" t="s">
+        <v>236</v>
+      </c>
+      <c r="C210">
+        <v>20100</v>
+      </c>
+      <c r="D210" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>237</v>
+      </c>
+      <c r="B211" t="s">
+        <v>238</v>
+      </c>
+      <c r="C211">
+        <v>35000</v>
+      </c>
+      <c r="D211" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>237</v>
+      </c>
+      <c r="B212" t="s">
+        <v>239</v>
+      </c>
+      <c r="C212">
+        <v>1700</v>
+      </c>
+      <c r="D212" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>237</v>
+      </c>
+      <c r="B213" t="s">
+        <v>240</v>
+      </c>
+      <c r="C213">
+        <v>500</v>
+      </c>
+      <c r="D213" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>241</v>
+      </c>
+      <c r="B214" t="s">
+        <v>26</v>
+      </c>
+      <c r="C214">
+        <v>5400</v>
+      </c>
+      <c r="D214" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>241</v>
+      </c>
+      <c r="B215" t="s">
+        <v>242</v>
+      </c>
+      <c r="C215">
+        <v>3300</v>
+      </c>
+      <c r="D215" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>241</v>
+      </c>
+      <c r="B216" t="s">
+        <v>243</v>
+      </c>
+      <c r="C216">
+        <v>1800</v>
+      </c>
+      <c r="D216" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>241</v>
+      </c>
+      <c r="B217" t="s">
+        <v>244</v>
+      </c>
+      <c r="C217">
+        <v>30000</v>
+      </c>
+      <c r="D217" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>245</v>
+      </c>
+      <c r="B218" t="s">
+        <v>246</v>
+      </c>
+      <c r="C218">
+        <v>19000</v>
+      </c>
+      <c r="D218" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>247</v>
+      </c>
+      <c r="B219" t="s">
+        <v>248</v>
+      </c>
+      <c r="C219">
+        <v>1100</v>
+      </c>
+      <c r="D219" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>247</v>
+      </c>
+      <c r="B220" t="s">
+        <v>17</v>
+      </c>
+      <c r="C220">
+        <v>1500</v>
+      </c>
+      <c r="D220" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>249</v>
+      </c>
+      <c r="B221" t="s">
+        <v>250</v>
+      </c>
+      <c r="C221">
+        <v>2500</v>
+      </c>
+      <c r="D221" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>249</v>
+      </c>
+      <c r="B222" t="s">
+        <v>251</v>
+      </c>
+      <c r="C222">
+        <v>2500</v>
+      </c>
+      <c r="D222" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>249</v>
+      </c>
+      <c r="B223" t="s">
+        <v>171</v>
+      </c>
+      <c r="C223">
+        <v>3000</v>
+      </c>
+      <c r="D223" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>252</v>
+      </c>
+      <c r="B224" t="s">
+        <v>253</v>
+      </c>
+      <c r="C224">
+        <v>3500</v>
+      </c>
+      <c r="D224" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>254</v>
+      </c>
+      <c r="B225" t="s">
+        <v>255</v>
+      </c>
+      <c r="C225">
+        <v>12000</v>
+      </c>
+      <c r="D225" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>254</v>
+      </c>
+      <c r="B226" t="s">
+        <v>256</v>
+      </c>
+      <c r="C226">
+        <v>200</v>
+      </c>
+      <c r="D226" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>257</v>
+      </c>
+      <c r="B227" t="s">
+        <v>258</v>
+      </c>
+      <c r="C227">
+        <v>800</v>
+      </c>
+      <c r="D227" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>257</v>
+      </c>
+      <c r="B228" t="s">
+        <v>236</v>
+      </c>
+      <c r="C228">
+        <v>16000</v>
+      </c>
+      <c r="D228" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>259</v>
+      </c>
+      <c r="B229" t="s">
+        <v>260</v>
+      </c>
+      <c r="C229">
+        <v>12000</v>
+      </c>
+      <c r="D229" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>259</v>
+      </c>
+      <c r="B230" t="s">
+        <v>261</v>
+      </c>
+      <c r="C230">
+        <v>5000</v>
+      </c>
+      <c r="D230" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>259</v>
+      </c>
+      <c r="B231" t="s">
+        <v>262</v>
+      </c>
+      <c r="C231">
+        <v>12000</v>
+      </c>
+      <c r="D231" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>259</v>
+      </c>
+      <c r="B232" t="s">
+        <v>263</v>
+      </c>
+      <c r="C232">
+        <v>15000</v>
+      </c>
+      <c r="D232" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>259</v>
+      </c>
+      <c r="B233" t="s">
+        <v>54</v>
+      </c>
+      <c r="C233">
+        <v>2500</v>
+      </c>
+      <c r="D233" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>259</v>
+      </c>
+      <c r="B234" t="s">
+        <v>264</v>
+      </c>
+      <c r="C234">
+        <v>15000</v>
+      </c>
+      <c r="D234" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>259</v>
+      </c>
+      <c r="B235" t="s">
+        <v>32</v>
+      </c>
+      <c r="C235">
+        <v>300</v>
+      </c>
+      <c r="D235" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>259</v>
+      </c>
+      <c r="B236" t="s">
+        <v>265</v>
+      </c>
+      <c r="C236">
+        <v>22000</v>
+      </c>
+      <c r="D236" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>